--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1557133.510641437</v>
+        <v>1634644.738584977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.31732496</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6129303.700983305</v>
+        <v>6477558.938065342</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>184.3702176281693</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>154.9510951642339</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>164.5559281475066</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.96479208594943</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +904,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>182.1666921702691</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -950,16 +952,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>223.0436211962674</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,19 +1059,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>60.92512596900084</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.6999122647179</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>106.6158133618226</v>
+        <v>60.96455341963205</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04548853606599031</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>109.142675762685</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>256.7936429614051</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>102.8562685532374</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1576,16 +1578,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1613,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>264.8387305165074</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>171.7931177684368</v>
       </c>
       <c r="G16" t="n">
-        <v>130.6556207749491</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>116.2712455521792</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,16 +2298,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>82.15263531037753</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>81.01098805494593</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>7.264602967362117</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>145.8285166974201</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>162.4290903542124</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2950,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>105.6319392430747</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>109.4731500843522</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045956</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>81.4938028923543</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3712,19 +3714,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>162.9119051916203</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>139.9514671241881</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>141.0682481421023</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,13 +3957,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>5.990622819019197</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>30.80549757377439</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>130.5921991392654</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4028,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4135,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4198,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.01098805494524</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.4212598210011</v>
+        <v>1243.268593282432</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>1209.16652450626</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>1177.297143721108</v>
       </c>
       <c r="E2" t="n">
         <v>748.7154694583763</v>
@@ -4328,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1290.883659894699</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1290.883659894699</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1290.068609346137</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.966549965851</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.720830305909</v>
+        <v>1265.527759726936</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1644.724363562988</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1644.724363562988</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>601.2856128932392</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>428.7239013764641</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>428.7239013764641</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4486,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W4" t="n">
-        <v>1185.831872363302</v>
+        <v>1265.915656964706</v>
       </c>
       <c r="X4" t="n">
-        <v>940.4401176967148</v>
+        <v>1020.523902298118</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>793.1042316122264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>626.6133988393536</v>
+        <v>1267.176165140082</v>
       </c>
       <c r="C5" t="n">
-        <v>592.511330063181</v>
+        <v>1233.074096363909</v>
       </c>
       <c r="D5" t="n">
-        <v>560.6419492780296</v>
+        <v>1201.204715578758</v>
       </c>
       <c r="E5" t="n">
-        <v>530.9076084767289</v>
+        <v>767.4299707370531</v>
       </c>
       <c r="F5" t="n">
-        <v>507.0805829263407</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>649.3169773395173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1273.417761384296</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1897.518545429074</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2076.255515279954</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>1713.63856521378</v>
       </c>
       <c r="W5" t="n">
-        <v>1072.260748364489</v>
+        <v>1308.783110624814</v>
       </c>
       <c r="X5" t="n">
-        <v>653.1182849437999</v>
+        <v>1293.681051244528</v>
       </c>
       <c r="Y5" t="n">
-        <v>648.8725652838574</v>
+        <v>1289.435331584586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>700.596843794713</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>700.596843794713</v>
       </c>
       <c r="M6" t="n">
-        <v>319.8519551513677</v>
+        <v>700.596843794713</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>700.596843794713</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.0459114002024</v>
+        <v>859.8453116552519</v>
       </c>
       <c r="C7" t="n">
-        <v>95.48419988342738</v>
+        <v>687.2836001384768</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>521.4056073399995</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>351.6476035907368</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>351.6476035907368</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2362.377960771848</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2116.498514350304</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1838.065513603409</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1551.110005473839</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="X7" t="n">
-        <v>459.8645301191896</v>
+        <v>1279.083601060131</v>
       </c>
       <c r="Y7" t="n">
-        <v>459.8645301191896</v>
+        <v>1051.663930374239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.922181297967</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>925.2294405284488</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D8" t="n">
-        <v>893.3600597432974</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>863.6257189419966</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1074.529126782698</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1059.427067402413</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1055.18134774247</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.8676094163139</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>199.8676094163139</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>33.98961661783662</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>33.98961661783662</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>392.2084670965938</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1655.056855453022</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>864.4976534877803</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>619.1058988211928</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.6862281353011</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1890.247121077182</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1890.247121077182</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1454.337336251626</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3140.544609571745</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.689154982779</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2316.54669156209</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2316.54669156209</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>2543.35618293017</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>2448.265894076723</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>2354.145479403677</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>2270.761641019838</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>2185.376551286022</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>2143.640899102235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>2169.704572262693</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>2494.262897228905</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>2494.262897228905</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>2494.262897228905</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>3148.968943854628</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>3148.968943854628</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q12" t="n">
-        <v>3689.707882486704</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>3806.880660581043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>3743.425223029426</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>3613.246579360028</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>3436.910032359996</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>3237.792514421996</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>3052.46976015519</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>2897.60232439407</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>2771.116545173291</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.195773823502</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C13" t="n">
-        <v>982.6340623067273</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D13" t="n">
-        <v>816.75606950825</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2512.138033117789</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2233.705032370895</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>2091.852222308677</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1819.825817894969</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1574.434063228381</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1347.01439254249</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.515944959518</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.373472142942</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.463687317386</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645387</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>511.3923006645387</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3586.813433454082</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3586.813433454082</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3181.957978865115</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2762.815515444426</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.815515444426</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8728193312368</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C16" t="n">
-        <v>772.3111078144617</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D16" t="n">
-        <v>606.4331150159844</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6751112667217</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F16" t="n">
-        <v>436.6751112667217</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.917776692876</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.484775945981</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.529267816412</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.502863402703</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.111108736116</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.691438050224</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5494,34 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
         <v>1463.168637987181</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,28 +5755,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1373.137619601648</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,40 +6001,40 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>3168.718933692368</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>4148.898600262674</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>451.897152078511</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>275.1900980402672</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>109.5988230660949</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>109.5988230660949</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,16 +6308,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5937635959755</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D28" t="n">
-        <v>643.7157707974982</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6424,10 +6426,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6598,22 +6600,22 @@
         <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>949.5782250957668</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6713,10 +6715,10 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>949.5782250957668</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>783.7002322972895</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
         <v>673.1212928181459</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,28 +6940,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1286.300469346936</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1286.300469346936</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2443.348304557487</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>4850.06585092381</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>4571.632850176916</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>4284.677342047346</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>4012.650937633638</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>3767.25918296705</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7183,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>4115.578073952528</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.6588228237728</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>699.0971113069977</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>533.2191185085204</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T40" t="n">
-        <v>2373.703780185412</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U40" t="n">
-        <v>2095.270779438517</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V40" t="n">
-        <v>1808.315271308948</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="W40" t="n">
-        <v>1536.288866895239</v>
+        <v>4136.043971960203</v>
       </c>
       <c r="X40" t="n">
-        <v>1290.897112228652</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1063.47744154276</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1526.457795636975</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.315322820399</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>652.4055379948431</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>218.6307931531383</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162085</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>910.4879051697988</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1489.869036295243</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1489.869036295243</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>1489.869036295243</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>2432.071999789051</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.381874622448</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3547.658357898059</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3185.041407831885</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2780.185953242919</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.04348982223</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1952.757366121883</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.535824598177</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C43" t="n">
-        <v>893.9741130814024</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829251</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336624</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954186</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212463</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2003.192273083352</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1731.165868669644</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.774114003056</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.354443317165</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1805.422871886986</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.280399070409</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>931.3706142448536</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>497.5958694031488</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>365.6845571412646</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448084</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>934.6074576929161</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.742592622717</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764879</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081896</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3464.006484081896</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3059.151029492929</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2640.00856607224</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2231.722442371894</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>378.9152695791559</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>378.9152695791559</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>378.9152695791559</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>378.9152695791559</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>378.9152695791559</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>378.9152695791559</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2269.279211290125</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C46" t="n">
-        <v>2096.71749977335</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D46" t="n">
-        <v>1930.839506974873</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E46" t="n">
-        <v>1761.08150322561</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>1584.374449187366</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>1418.783174213194</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>1278.880999903568</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>1190.221050678244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>1276.800735842933</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>1551.559190414069</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>1969.76907218203</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>2429.252939362943</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>2871.511742520587</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>3291.180991746369</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>3638.68788571671</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>3806.880660581042</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>3785.462839286414</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>3626.221470584411</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>3380.342024162866</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>3101.909023415971</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>2814.953515286402</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>2542.927110872693</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>2542.927110872693</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>2461.097830009112</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.7510985324826</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8616,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>42.55209558322758</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>497.8733301746875</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9401,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9647,16 +9649,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>103.9790360591069</v>
       </c>
       <c r="P23" t="n">
-        <v>803.0195439628787</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,19 +9956,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>274.84172772886</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
-        <v>956.4233740001619</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>585.2334657832773</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>840.7541590122592</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>926.439739811392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328637</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>172.6433544318827</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>61.36294431725513</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>164.5982668767803</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>3.146865729424576</v>
       </c>
       <c r="G16" t="n">
-        <v>33.27974144948149</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>58.66873794568212</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.50874676570929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.23190701435001</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>80.50874676570922</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>58.58727362741787</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>58.58727362741793</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>161.926849064975</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>80.50874676570893</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>102.9863699957336</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>282.520507152782</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.0953302292546</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>292.9965561556189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.1344859240876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>525457.6140688257</v>
+        <v>540253.6568959802</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>525457.6140688257</v>
+        <v>542917.7169495601</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459447.984446734</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459447.9844467341</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459447.984446734</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459447.984446734</v>
+        <v>568243.9379815874</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
+        <v>455725.2219068473</v>
+      </c>
+      <c r="D2" t="n">
         <v>455725.2219068472</v>
       </c>
-      <c r="D2" t="n">
-        <v>455725.2219068473</v>
-      </c>
       <c r="E2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>362087.6407144212</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="H2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="I2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="J2" t="n">
         <v>447828.9465167493</v>
-      </c>
-      <c r="I2" t="n">
-        <v>447828.9465167495</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167494</v>
@@ -26347,13 +26349,13 @@
         <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="P2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875292</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="O4" t="n">
-        <v>76713.02278410408</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="P4" t="n">
-        <v>76713.02278410408</v>
+        <v>94878.44464875291</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42016.0136726971</v>
+        <v>42016.01367269707</v>
       </c>
       <c r="C6" t="n">
-        <v>184207.3143324069</v>
+        <v>137462.6074121221</v>
       </c>
       <c r="D6" t="n">
-        <v>184207.314332407</v>
+        <v>196095.5665286635</v>
       </c>
       <c r="E6" t="n">
-        <v>70032.73696738121</v>
+        <v>92877.15404115431</v>
       </c>
       <c r="F6" t="n">
-        <v>227510.0318894853</v>
+        <v>275232.263262204</v>
       </c>
       <c r="G6" t="n">
-        <v>185732.4546558349</v>
+        <v>275232.263262204</v>
       </c>
       <c r="H6" t="n">
-        <v>275232.2632622039</v>
+        <v>275232.263262204</v>
       </c>
       <c r="I6" t="n">
-        <v>275232.2632622041</v>
+        <v>275232.2632622042</v>
       </c>
       <c r="J6" t="n">
-        <v>164217.7979172139</v>
+        <v>164217.7979172138</v>
       </c>
       <c r="K6" t="n">
+        <v>222186.4086234317</v>
+      </c>
+      <c r="L6" t="n">
+        <v>265839.9615355816</v>
+      </c>
+      <c r="M6" t="n">
+        <v>123032.0923242164</v>
+      </c>
+      <c r="N6" t="n">
+        <v>275232.2632622042</v>
+      </c>
+      <c r="O6" t="n">
         <v>275232.263262204</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>275232.263262204</v>
-      </c>
-      <c r="M6" t="n">
-        <v>143796.0161047845</v>
-      </c>
-      <c r="N6" t="n">
-        <v>275232.2632622039</v>
-      </c>
-      <c r="O6" t="n">
-        <v>227510.0318894852</v>
-      </c>
-      <c r="P6" t="n">
-        <v>227510.0318894851</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>72.25986202798401</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>249.2521672991092</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.50449556426355</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,13 +27599,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>185.341348283622</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>215.2171608926996</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>33.58645845988585</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>103.2940869014917</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>4.235449959712696</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>327.1452347265883</v>
+        <v>372.7964946687788</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.8944949617953</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.7510985324826</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>42.55209558322758</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>497.8733301746875</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -36121,22 +36123,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36367,16 +36369,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>103.9790360591069</v>
       </c>
       <c r="P23" t="n">
-        <v>803.0195439628787</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,13 +37083,13 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>274.84172772886</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,22 +37551,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
-        <v>956.4233740001619</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>585.2334657832773</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>840.7541590122592</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>926.439739811392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>305.8360165328637</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38193,7 +38195,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634644.738584977</v>
+        <v>1634119.556215946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>317.4915249590134</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.9510951642339</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>51.25395846644548</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>164.5559281475066</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>198.861415387494</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>223.0436211962674</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>159.6999122647179</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>34.06158462965247</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1135,19 +1135,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>60.96455341963205</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>310.0384872192905</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1189,7 +1189,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>109.142675762685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1533,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>102.8562685532374</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>171.7931177684368</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>116.2712455521792</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>82.15263531037753</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,7 +2329,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>54.66258501924847</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>162.4290903542124</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>35.34780583513515</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>81.4938028923543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>174.939983497867</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,16 +3717,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>193.8659438253673</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>139.9514671241881</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>30.80549757377439</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>116.0434079398613</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.268593282432</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>1209.16652450626</v>
+        <v>408.5045702952325</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.297143721108</v>
+        <v>376.6351895100811</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1265.527759726936</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4421,7 +4421,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>601.2856128932392</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="C4" t="n">
-        <v>428.7239013764641</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>428.7239013764641</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1265.915656964706</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.523902298118</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.1042316122264</v>
+        <v>992.2117929153466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.176165140082</v>
+        <v>745.5581716674777</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.074096363909</v>
+        <v>711.4561028913051</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.204715578758</v>
+        <v>275.5463180657496</v>
       </c>
       <c r="E5" t="n">
-        <v>767.4299707370531</v>
+        <v>74.67620151272541</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>649.3169773395173</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>1273.417761384296</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="M5" t="n">
-        <v>1897.518545429074</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="N5" t="n">
-        <v>2521.619329473852</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="O5" t="n">
-        <v>2521.619329473852</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473852</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473852</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657698</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.55210234689</v>
+        <v>2217.900228530737</v>
       </c>
       <c r="U5" t="n">
-        <v>2076.255515279954</v>
+        <v>1958.677925847753</v>
       </c>
       <c r="V5" t="n">
-        <v>1713.63856521378</v>
+        <v>1596.06097578158</v>
       </c>
       <c r="W5" t="n">
-        <v>1308.783110624814</v>
+        <v>1595.245925233017</v>
       </c>
       <c r="X5" t="n">
-        <v>1293.681051244528</v>
+        <v>1176.103461812328</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.435331584586</v>
+        <v>767.8173381119815</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326475</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993482</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993464</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>700.596843794713</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>700.596843794713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>700.596843794713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>700.596843794713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>859.8453116552519</v>
+        <v>593.0357356940453</v>
       </c>
       <c r="C7" t="n">
-        <v>687.2836001384768</v>
+        <v>420.4740241772703</v>
       </c>
       <c r="D7" t="n">
-        <v>521.4056073399995</v>
+        <v>254.596031378793</v>
       </c>
       <c r="E7" t="n">
-        <v>351.6476035907368</v>
+        <v>84.83802762953022</v>
       </c>
       <c r="F7" t="n">
-        <v>351.6476035907368</v>
+        <v>84.83802762953022</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991025</v>
+        <v>84.83802762953022</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2500.201508179233</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771848</v>
+        <v>2340.960139477229</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350304</v>
+        <v>2095.080693055685</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603409</v>
+        <v>1816.64769230879</v>
       </c>
       <c r="V7" t="n">
-        <v>1551.110005473839</v>
+        <v>1529.69218417922</v>
       </c>
       <c r="W7" t="n">
-        <v>1279.083601060131</v>
+        <v>1257.665779765512</v>
       </c>
       <c r="X7" t="n">
-        <v>1279.083601060131</v>
+        <v>1012.274025098924</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.663930374239</v>
+        <v>784.8543544130325</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.9996686250441</v>
+        <v>1153.221971308028</v>
       </c>
       <c r="C8" t="n">
-        <v>832.4193116355168</v>
+        <v>1119.119902531855</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>1087.250521746703</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>1057.516180945403</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
         <v>342.9481604582723</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1743.687422190584</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1728.585362810299</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.299239109952</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>568.9155211348376</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>568.9155211348376</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>392.2084670965938</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,31 +5287,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>441.3805170312517</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
         <v>267.852115244952</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5503,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>473.9577670482354</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,13 +5761,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.727725908489</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>677.2880215932364</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.384174393664</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.357769979955</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.966015313368</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.546344627476</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5998,43 +5998,43 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2642.287896536276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2396.408450114731</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.6588228237728</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>699.0971113069977</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>533.2191185085204</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1290.897112228652</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.47744154276</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,13 +6776,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,28 +6940,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4850.06585092381</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.632850176916</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4284.677342047346</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4012.650937633638</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3767.25918296705</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882667</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365892</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674143</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181516</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.070376373911</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>4408.070376373911</v>
+        <v>2117.975449367842</v>
       </c>
       <c r="W40" t="n">
-        <v>4136.043971960203</v>
+        <v>1845.949044954133</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.557290287546</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601654</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7648,25 +7648,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>934.6074576929161</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
         <v>4943.887948785925</v>
@@ -7730,25 +7730,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>790.3368563937634</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>604.9339300505458</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.8058955861145</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.7510985324826</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238448</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,11 +8455,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>497.8733301746875</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9646,16 +9646,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>103.9790360591069</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>507.1059092967421</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>274.84172772886</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>840.7541590122592</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61.36294431725513</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.146865729424576</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>58.66873794568212</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.9333177378963</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>102.9863699957348</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>80.50874676570922</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>90.22000922290655</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.9863699957336</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>52.01701577190883</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>540253.6568959802</v>
+        <v>540253.6568959804</v>
       </c>
     </row>
     <row r="4">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568243.9379815874</v>
+        <v>568243.9379815873</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568243.9379815874</v>
+        <v>568243.9379815873</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068471</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068471</v>
       </c>
       <c r="E2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>447828.9465167493</v>
+      </c>
+      <c r="I2" t="n">
         <v>447828.9465167494</v>
       </c>
-      <c r="H2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>447828.9465167496</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="M2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="N2" t="n">
         <v>447828.9465167493</v>
       </c>
-      <c r="K2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="L2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="P2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="P2" t="n">
-        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.7678950167</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998226</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877288</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726621896</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917067</v>
+        <v>179718.6327917063</v>
       </c>
       <c r="D4" t="n">
         <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875292</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="N4" t="n">
         <v>94878.44464875283</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875286</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42016.01367269707</v>
+        <v>42016.01367269684</v>
       </c>
       <c r="C6" t="n">
-        <v>137462.6074121221</v>
+        <v>137462.6074121215</v>
       </c>
       <c r="D6" t="n">
-        <v>196095.5665286635</v>
+        <v>196095.5665286641</v>
       </c>
       <c r="E6" t="n">
-        <v>92877.15404115431</v>
+        <v>92853.92970177172</v>
       </c>
       <c r="F6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228213</v>
       </c>
       <c r="G6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228215</v>
       </c>
       <c r="H6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228212</v>
       </c>
       <c r="I6" t="n">
-        <v>275232.2632622042</v>
+        <v>275209.0389228213</v>
       </c>
       <c r="J6" t="n">
-        <v>164217.7979172138</v>
+        <v>164194.5735778313</v>
       </c>
       <c r="K6" t="n">
-        <v>222186.4086234317</v>
+        <v>222163.1842840487</v>
       </c>
       <c r="L6" t="n">
-        <v>265839.9615355816</v>
+        <v>265816.7371961995</v>
       </c>
       <c r="M6" t="n">
-        <v>123032.0923242164</v>
+        <v>123008.8679848339</v>
       </c>
       <c r="N6" t="n">
-        <v>275232.2632622042</v>
+        <v>275209.0389228213</v>
       </c>
       <c r="O6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228215</v>
       </c>
       <c r="P6" t="n">
-        <v>275232.263262204</v>
+        <v>275209.0389228215</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684652</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483609</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939175</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483606</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939175</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483609</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939175</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>116.2695231293976</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.2521672991092</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>119.5821359351618</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.50449556426355</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>230.5755820057938</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>33.58645845988585</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>4.235449959712696</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>104.4415679368768</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.7964946687788</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>113.5502680755939</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>54.79268646174563</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-5.6379772574693e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-8.644541322703808e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>604.9339300505458</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.8058955861145</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.7510985324826</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238448</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,11 +35175,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>497.8733301746875</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36129,16 +36129,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36366,16 +36366,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>103.9790360591069</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>507.1059092967421</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>274.84172772886</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37308,16 +37308,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>840.7541590122592</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
